--- a/resources/samples/evaluated-transcriptions/3_reviewed.xlsx
+++ b/resources/samples/evaluated-transcriptions/3_reviewed.xlsx
@@ -334,8 +334,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="80.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
